--- a/docs/PTA3_ADDC_30_1d5/PTA3_DDC_30_31.07.24_output.xlsx
+++ b/docs/PTA3_ADDC_30_1d5/PTA3_DDC_30_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731695831.5752223</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731695835.5399382</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731695831.5752223.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731695835.5399382.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.84</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.16</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.67999999999995</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731695836.964737</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731695841.7995923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731695836.964737.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731695841.7995923.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>289.74</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>289.76</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.01999999999998181</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731695844.6837783</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731695845.585739</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731695844.6837783.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731695845.585739.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>288.53</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>288.6</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.07000000000005002</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -695,95 +729,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731695846.1061747</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731695846.1061747.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731695846.1061747.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>288.88</v>
       </c>
-      <c r="J6" t="n">
-        <v>288.88</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>289.15</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.2699999999999818</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731695848.9247265</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731695852.2987597</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731695848.9247265.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731695852.2987597.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>132.79</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.21</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.4200000000000159</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731695858.1122549</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731695860.525227</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731695858.1122549.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731695860.525227.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>134.24</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>133.15</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.090000000000003</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.8099999999999999</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731695865.7964315</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731695866.4191496</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731695865.7964315.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731695866.4191496.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>132.7</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>133.2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -895,95 +953,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731695867.3926673</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731695867.3926673.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731695867.3926673.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>133.21</v>
       </c>
-      <c r="J10" t="n">
-        <v>133.21</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>133.35</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.1399999999999864</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731695872.8953056</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731695875.441483</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695872.8953056.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695875.441483.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6782</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6781</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-1</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -991,51 +1061,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731695877.5341766</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731695879.4985528</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695877.5341766.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695879.4985528.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6789</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6793</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-4</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1043,51 +1119,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731695881.057395</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731695885.2941663</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695881.057395.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695885.2941663.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6765</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6746</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-19</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731695886.3698735</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731695887.4933217</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695886.3698735.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695887.4933217.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6749</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6745.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>3.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731695888.3345733</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731695889.7633357</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695888.3345733.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695889.7633357.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6749</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6748</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731695889.9972813</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731695890.1618168</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695889.9972813.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695890.1618168.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6749</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6748</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1251,51 +1351,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731695890.2102253</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731695890.3135004</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695890.2102253.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695890.3135004.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6749</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6748.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1303,51 +1409,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731695890.3284607</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731695890.3766315</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695890.3284607.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695890.3766315.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6748.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6749</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.5</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1355,51 +1467,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731695890.391564</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731695890.605668</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695890.391564.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695890.605668.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6749</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6748</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1407,51 +1525,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731695890.647568</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731695890.716577</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695890.647568.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695890.716577.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6748</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6749</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731695890.730529</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731695890.896098</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695890.730529.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695890.896098.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6749</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6748</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731695890.9667451</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731695891.0737565</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695890.9667451.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731695891.0737565.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6749</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6747.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1.5</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1563,43 +1699,49 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731695891.0877404</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731695891.0877404.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731695891.0877404.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6747.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6747.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,51 +1749,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731695893.723308</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731695896.0946984</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731695893.723308.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731695896.0946984.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>511.05</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>511.7</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.6499999999999773</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1659,51 +1807,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731695896.2410836</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731695897.1983185</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731695896.2410836.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731695897.1983185.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>512.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>511.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.8999999999999773</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1711,51 +1865,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731695899.2941046</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731695902.4493551</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731695899.2941046.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731695902.4493551.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>513.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>513.15</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.05000000000006821</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1763,51 +1923,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731695905.7066696</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731695906.4586074</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731695905.7066696.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731695906.4586074.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>515.05</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>514.2</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.8499999999999091</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1815,51 +1981,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731695907.127917</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731695909.2553058</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731695907.127917.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731695909.2553058.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>513.4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>513.9</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.5</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1867,51 +2039,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731695909.3594472</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731695911.0128</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731695909.3594472.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731695911.0128.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>514</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>514</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1919,51 +2097,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731695911.2144723</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731695911.890988</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731695911.2144723.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731695911.890988.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>513.5</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>514.1</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1971,95 +2155,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731695912.8069403</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731695912.8069403.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731695912.8069403.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>514.85</v>
       </c>
-      <c r="J31" t="n">
-        <v>514.85</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>514.95</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731695915.5628037</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731695920.9119828</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731695915.5628037.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731695920.9119828.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1042.4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1042.2</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2067,51 +2263,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731695921.9339325</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731695923.0184927</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731695921.9339325.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731695923.0184927.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1045.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1042</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>3.599999999999909</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2119,51 +2321,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731695931.9692428</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731695933.3876846</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731695931.9692428.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731695933.3876846.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1041.8</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1041.4</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.3999999999998636</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2171,95 +2379,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731695933.6697047</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731695933.6697047.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731695933.6697047.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1041.6</v>
       </c>
-      <c r="J35" t="n">
-        <v>1041.6</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1042.6</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731695937.5020578</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731695941.9432878</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731695937.5020578.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731695941.9432878.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>11.956</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>11.961</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.005000000000000782</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2267,51 +2487,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731695943.6197307</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731695952.715549</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731695943.6197307.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731695952.715549.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>11.939</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>11.863</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.07600000000000051</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.64</v>
       </c>
     </row>
@@ -2319,51 +2545,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731695953.0086653</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731695953.3763459</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731695953.0086653.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731695953.3763459.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>11.864</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>11.859</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.005000000000000782</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2371,51 +2603,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731695956.1241896</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731695958.7613475</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731695956.1241896.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731695958.7613475.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>127.72</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>127.48</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.2399999999999949</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -2423,51 +2661,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731695958.9070666</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731695959.6162522</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731695958.9070666.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731695959.6162522.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>127.64</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>127.28</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2475,51 +2719,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731695960.6766453</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731695964.9712875</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731695960.6766453.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731695964.9712875.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>127.7</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>129.42</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-1.719999999999985</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-1.35</v>
       </c>
     </row>
@@ -2527,51 +2777,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731695968.4564047</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731695969.4120367</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731695968.4564047.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731695969.4120367.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>129.9</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>129.62</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2579,51 +2835,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731695971.610814</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731695973.1943285</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731695971.610814.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731695973.1943285.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>129.78</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>129.8</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2631,95 +2893,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731695973.3883777</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731695973.3883777.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731695973.3883777.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>129.86</v>
       </c>
-      <c r="J44" t="n">
-        <v>129.86</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>129.82</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.04000000000002046</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731695976.5195978</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731695980.9102242</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731695976.5195978.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731695980.9102242.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>165.68</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>164.66</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-1.02000000000001</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.62</v>
       </c>
     </row>
@@ -2727,51 +3001,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731695981.9223187</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731695983.2973948</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731695981.9223187.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731695983.2973948.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>165.2</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>165.4</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.2000000000000171</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -2779,51 +3059,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731695987.43745</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731695988.6070905</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731695987.43745.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731695988.6070905.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>165.2</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>165.06</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1399999999999864</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2831,51 +3117,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731695989.0358627</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731695989.7868054</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731695989.0358627.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731695989.7868054.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>164.96</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>165.14</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1799999999999784</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2883,51 +3175,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731695991.309877</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731695991.9455602</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731695991.309877.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731695991.9455602.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>165.2</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>165.14</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2935,95 +3233,107 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731695993.46432</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731695993.46432.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731695993.46432.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>165.34</v>
       </c>
-      <c r="J50" t="n">
-        <v>165.34</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>165.68</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.3400000000000034</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731695997.5826383</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731696002.3421462</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731695997.5826383.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731696002.3421462.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>51.3</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>50.985</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.3149999999999977</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.61</v>
       </c>
     </row>
@@ -3031,51 +3341,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731696003.6748037</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731696003.8225498</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731696003.6748037.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731696003.8225498.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>50.8</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>51.005</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.2050000000000054</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -3083,51 +3399,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731696003.960006</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731696004.9802709</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731696003.960006.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731696004.9802709.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>51.13</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>50.985</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1450000000000031</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3135,51 +3457,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731696008.52975</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731696011.5994208</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731696008.52975.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731696011.5994208.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>50.61</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>50.745</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.134999999999998</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3187,51 +3515,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731696011.9535656</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731696015.3346913</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731696011.9535656.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731696015.3346913.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>50.82</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>50.795</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.02499999999999858</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3239,95 +3573,107 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731696015.4696887</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731696015.4696887.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731696015.4696887.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>50.705</v>
       </c>
-      <c r="J56" t="n">
-        <v>50.705</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>50.74</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.03500000000000369</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731696019.2959795</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731696024.4965708</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731696019.2959795.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731696024.4965708.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>1421</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>1421</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3335,51 +3681,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731696029.7246366</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731696032.9211054</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731696029.7246366.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731696032.9211054.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>1413.4</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1412.8</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.6000000000001364</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3387,51 +3739,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731696033.2093916</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731696033.2862272</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731696033.2093916.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731696033.2862272.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1412.6</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1412.6</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3439,51 +3797,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731696033.4438293</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731696033.937332</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731696033.4438293.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731696033.937332.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1412</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1412.8</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3491,95 +3855,107 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731696034.185485</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731696034.185485.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731696034.185485.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1412.6</v>
       </c>
-      <c r="J61" t="n">
-        <v>1412.6</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1416.6</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731696036.2896278</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731696038.727391</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731696036.2896278.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731696038.727391.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>61.3</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>61</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -3587,51 +3963,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731696042.9405074</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731696043.5218081</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731696042.9405074.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731696043.5218081.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>60.73</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>60.95</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.220000000000006</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3639,51 +4021,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731696045.1534784</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731696045.93798</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731696045.1534784.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731696045.93798.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>61</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>60.87</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3691,51 +4079,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731696051.1000078</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731696052.404681</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731696051.1000078.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731696052.404681.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>60.55</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>60.69</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3743,95 +4137,107 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731696054.3058963</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731696054.3058963.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731696054.3058963.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>60.75</v>
       </c>
-      <c r="J66" t="n">
-        <v>60.75</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>60.94</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.1899999999999977</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731696059.5067027</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731696059.9549255</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SELG1731696059.5067027.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SELG1731696059.9549255.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>58.46</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>58.25</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3839,51 +4245,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731696060.2734795</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731696063.5078797</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SELG1731696060.2734795.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SELG1731696063.5078797.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>58.16</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>57.71</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.4499999999999957</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.77</v>
       </c>
     </row>
@@ -3891,51 +4303,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731696064.0362802</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731696065.8012457</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SELG1731696064.0362802.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SELG1731696065.8012457.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>57.91</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>57.89</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3943,95 +4361,107 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731696072.841589</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731696072.841589.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731696072.841589.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>57.95</v>
       </c>
-      <c r="J70" t="n">
-        <v>57.95</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>58.8</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.8499999999999943</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-1.47</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731696074.740758</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731696076.9855459</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731696074.740758.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731696076.9855459.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>142.48</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>142.06</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.4199999999999875</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -4039,51 +4469,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731696083.7365878</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731696087.5112104</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731696083.7365878.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731696087.5112104.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>143.5</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>143.96</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-0.460000000000008</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -4091,95 +4527,107 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731696094.3215616</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731696094.3215616.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731696094.3215616.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>143.68</v>
       </c>
-      <c r="J73" t="n">
-        <v>143.68</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>143.66</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731696100.1512225</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731696105.9229088</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731696100.1512225.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731696105.9229088.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>85.14</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>84.94</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -4187,51 +4635,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731696114.4118443</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731696116.90131</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731696114.4118443.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731696116.90131.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>376.74</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>375.87</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.8700000000000045</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -4239,51 +4693,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731696117.2505853</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731696119.5831265</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731696117.2505853.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731696119.5831265.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>374.67</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>373.86</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.8100000000000023</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -4291,51 +4751,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731696120.967996</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731696121.7713308</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731696120.967996.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731696121.7713308.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>371.24</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>373.25</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>2.009999999999991</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -4343,51 +4809,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731696121.8166325</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731696125.2745202</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731696121.8166325.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731696125.2745202.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>374.06</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>373.44</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -4395,95 +4867,107 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731696127.8669662</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731696127.8669662.png</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731696127.8669662.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>375</v>
       </c>
-      <c r="J79" t="n">
-        <v>375</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>376.43</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-1.430000000000007</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731696134.832459</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731696135.563269</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731696134.832459.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731696135.563269.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>0.09764</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.0005399999999999988</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -4491,51 +4975,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731696136.350814</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731696138.312944</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/FEES1731696136.350814.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/FEES1731696138.312944.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>0.09810000000000001</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>7.999999999999674e-05</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -4543,51 +5033,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731696141.4571364</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731696145.251573</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/FEES1731696141.4571364.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/FEES1731696145.251573.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>0.099</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>0.09946000000000001</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.0004600000000000021</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -4595,51 +5091,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731696145.5525966</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731696145.9539711</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/FEES1731696145.5525966.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/FEES1731696145.9539711.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>0.1002</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>0.09948000000000001</v>
       </c>
-      <c r="K83" t="n">
-        <v>0.0007199999999999984</v>
-      </c>
-      <c r="L83" t="n">
+      <c r="M83" t="n">
+        <v>0.0007199999999999845</v>
+      </c>
+      <c r="N83" t="n">
         <v>0.72</v>
       </c>
     </row>
@@ -4647,51 +5149,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731696147.3185525</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731696147.8182712</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/FEES1731696147.3185525.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/FEES1731696147.8182712.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>0.1</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>0.0998</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.0002000000000000057</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -4699,51 +5207,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731696150.7629478</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731696150.9572718</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/FEES1731696150.7629478.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/FEES1731696150.9572718.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>0.09986</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>0.09988000000000001</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-2.000000000000612e-05</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -4751,51 +5265,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731696151.000308</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731696151.3243802</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/FEES1731696151.000308.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/FEES1731696151.3243802.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>0.0999</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>0.09992000000000001</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-2.000000000000612e-05</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -4803,51 +5323,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731696151.399421</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731696152.0474486</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/FEES1731696151.399421.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/FEES1731696152.0474486.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>0.10002</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>0.10002</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4855,51 +5381,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731696153.2134864</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731696156.3980887</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731696153.2134864.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731696156.3980887.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>34.76</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>34.655</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.1049999999999969</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4907,51 +5439,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731696158.208424</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731696160.0420208</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731696158.208424.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731696160.0420208.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>34.63</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>34.68</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -4959,51 +5497,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731696163.086748</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731696164.102241</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731696163.086748.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731696164.102241.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>34.64</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>34.645</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.005000000000002558</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -5011,51 +5555,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731696165.2102597</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731696166.243421</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731696165.2102597.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731696166.243421.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>34.65</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>34.56</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.08999999999999631</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -5063,44 +5613,50 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731696170.0896935</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731696170.0896935.png</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731696170.0896935.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>34.595</v>
       </c>
-      <c r="J92" t="n">
-        <v>34.595</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>34.69</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.09499999999999886</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.27</v>
       </c>
     </row>
   </sheetData>
@@ -5183,13 +5739,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001039999999999985</v>
+        <v>0.001039999999999972</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001299999999999982</v>
+        <v>0.0001299999999999964</v>
       </c>
       <c r="E3" t="n">
         <v>1.05</v>
@@ -5205,16 +5761,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.549999999999955</v>
+        <v>3.449999999999932</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4437499999999943</v>
+        <v>0.4312499999999915</v>
       </c>
       <c r="E4" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F4" t="n">
         <v>0.09</v>
@@ -5227,19 +5783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1950000000000074</v>
+        <v>0.2300000000000111</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03250000000000123</v>
+        <v>0.03833333333333518</v>
       </c>
       <c r="E5" t="n">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -5249,16 +5805,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.339999999999989</v>
+        <v>-1.38000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2233333333333315</v>
+        <v>-0.2300000000000016</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.06</v>
+        <v>-1.09</v>
       </c>
       <c r="F6" t="n">
         <v>-0.18</v>
@@ -5271,19 +5827,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8400000000000603</v>
+        <v>-1.180000000000064</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.14000000000001</v>
+        <v>-0.1966666666666773</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.51</v>
+        <v>-0.72</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.08</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="8">
@@ -5293,19 +5849,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.689999999999998</v>
+        <v>1.259999999999991</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5379999999999996</v>
+        <v>0.2519999999999982</v>
       </c>
       <c r="E8" t="n">
-        <v>0.72</v>
+        <v>0.34</v>
       </c>
       <c r="F8" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5315,19 +5871,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1999999999998181</v>
+        <v>-3.800000000000182</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03999999999996362</v>
+        <v>-0.7600000000000364</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02</v>
+        <v>-0.26</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="10">
@@ -5337,19 +5893,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7900000000000063</v>
+        <v>0.6000000000000085</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1580000000000013</v>
+        <v>0.1200000000000017</v>
       </c>
       <c r="E10" t="n">
-        <v>1.29</v>
+        <v>0.98</v>
       </c>
       <c r="F10" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
@@ -5359,19 +5915,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2499999999999929</v>
+        <v>0.154999999999994</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04999999999999858</v>
+        <v>0.03099999999999881</v>
       </c>
       <c r="E11" t="n">
-        <v>0.71</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="12">
@@ -5381,19 +5937,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.169999999999987</v>
+        <v>1.030000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2924999999999969</v>
+        <v>0.2575000000000003</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8699999999999999</v>
+        <v>0.7599999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="13">
@@ -5403,19 +5959,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.799999999999727</v>
+        <v>4.799999999999727</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9499999999999318</v>
+        <v>1.199999999999932</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3599999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14">
@@ -5425,19 +5981,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.6299999999998818</v>
+        <v>-0.8999999999998636</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1574999999999704</v>
+        <v>-0.2249999999999659</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.22</v>
+        <v>-0.3099999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.05</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="15">
@@ -5447,19 +6003,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2199999999999989</v>
+        <v>-1.069999999999993</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05499999999999972</v>
+        <v>-0.2674999999999983</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.38</v>
+        <v>-1.85</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="16">
@@ -5469,16 +6025,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.04000000000002046</v>
+        <v>-0.02000000000001023</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.01333333333334016</v>
+        <v>-0.006666666666670078</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="F16" t="n">
         <v>-0.01</v>
